--- a/Project 1/SQL Project Submission.xlsx
+++ b/Project 1/SQL Project Submission.xlsx
@@ -2,32 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Clone\Data-science-with-python\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9008DF09-D187-4B25-B219-8FBEFD7EECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4793102-7C4F-4DC6-A930-8F64EDD9EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85EDA03F-5566-4EA3-8D51-B7ECBE51D33D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{85EDA03F-5566-4EA3-8D51-B7ECBE51D33D}"/>
   </bookViews>
   <sheets>
     <sheet name="Q4PT" sheetId="19" r:id="rId1"/>
-    <sheet name="Q4" sheetId="18" r:id="rId2"/>
-    <sheet name="Q3PT" sheetId="17" r:id="rId3"/>
-    <sheet name="Q3" sheetId="16" r:id="rId4"/>
-    <sheet name="Q2PT" sheetId="14" r:id="rId5"/>
-    <sheet name="Q2" sheetId="13" r:id="rId6"/>
-    <sheet name="Q1PT" sheetId="15" r:id="rId7"/>
-    <sheet name="Q1" sheetId="2" r:id="rId8"/>
+    <sheet name="Q41PT" sheetId="20" r:id="rId2"/>
+    <sheet name="Q4" sheetId="18" r:id="rId3"/>
+    <sheet name="Q3PT" sheetId="17" r:id="rId4"/>
+    <sheet name="Q3" sheetId="16" r:id="rId5"/>
+    <sheet name="Q2PT" sheetId="14" r:id="rId6"/>
+    <sheet name="Q2" sheetId="13" r:id="rId7"/>
+    <sheet name="Q1PT" sheetId="15" r:id="rId8"/>
+    <sheet name="Q1" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId9"/>
-    <pivotCache cacheId="19" r:id="rId10"/>
-    <pivotCache cacheId="26" r:id="rId11"/>
-    <pivotCache cacheId="32" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="9" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="384">
   <si>
     <t>Music</t>
   </si>
@@ -1236,11 +1238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -2552,6 +2557,835 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[SQL Project Submission.xlsx]Q41PT!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Rental numbers of store 1 and store 2 in the same month of the years</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q41PT!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Q41PT!$A$5:$A$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q41PT!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF50-4240-968F-25E5D3ED4587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q41PT!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Q41PT!$A$5:$A$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q41PT!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF50-4240-968F-25E5D3ED4587}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1612239248"/>
+        <c:axId val="1612227248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1612239248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month of the years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612227248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612227248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Rental numbers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612239248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4123,7 +4957,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4743,7 +5577,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5483,6 +6317,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7534,6 +8408,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7579,6 +8956,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003AAAE5-6FEC-F1A7-46C5-61104FE8BE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -7616,7 +9034,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7657,7 +9075,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8227,6 +9645,45 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dell Precision" refreshedDate="45525.867390277781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{EAD85F40-13BC-4562-81B9-6FA25BF281D2}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="rental_month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="5">
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="rental_year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2005" maxValue="2006" count="2">
+        <n v="2005"/>
+        <n v="2006"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="store_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="85" maxValue="3367"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="361">
   <r>
@@ -12343,8 +13800,73 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="558"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="598"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1163"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1148"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3342"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3367"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2892"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2794"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="97"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A9ECD76-646F-487F-8430-20652A256E34}" name="PivotTable6" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A9ECD76-646F-487F-8430-20652A256E34}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:I8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -12512,7 +14034,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D9D9C68-5F57-4582-962E-ED3FBD3D5AFB}" name="PivotTable5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D76749-039C-46C6-9F8F-93451A09FAF1}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of count" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D9D9C68-5F57-4582-962E-ED3FBD3D5AFB}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -12672,8 +14309,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62774EA1-39F4-49B9-893F-0885C3DDCA64}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62774EA1-39F4-49B9-893F-0885C3DDCA64}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
@@ -13103,8 +14740,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60E9B40D-460E-4C19-8D3F-72C78473A5F1}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60E9B40D-460E-4C19-8D3F-72C78473A5F1}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -13209,19 +14846,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0BD2FA7-E0AF-499E-ACF1-A18264D5857C}" name="Table8" displayName="Table8" ref="A1:D11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0BD2FA7-E0AF-499E-ACF1-A18264D5857C}" name="Table8" displayName="Table8" ref="A1:D12" totalsRowCount="1">
   <autoFilter ref="A1:D11" xr:uid="{E0BD2FA7-E0AF-499E-ACF1-A18264D5857C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0482B2D0-9F4A-4C8C-A78D-4CF23D80BC62}" name="rental_month"/>
     <tableColumn id="2" xr3:uid="{54EC060B-4680-4405-B8E7-16218FE1D711}" name="rental_year"/>
     <tableColumn id="3" xr3:uid="{37BD7862-6902-4AC2-9C16-78A7BFCF4FE5}" name="store_id"/>
-    <tableColumn id="4" xr3:uid="{43BD0896-B175-4C26-9C24-2E297D9FC64C}" name="count"/>
+    <tableColumn id="4" xr3:uid="{43BD0896-B175-4C26-9C24-2E297D9FC64C}" name="count" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table8[count])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2EC4E7BA-80A2-4379-9283-D8D7F6B62F2C}" name="Table2" displayName="Table2" ref="G1:J11" totalsRowShown="0">
+  <autoFilter ref="G1:J11" xr:uid="{2EC4E7BA-80A2-4379-9283-D8D7F6B62F2C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F3A2CCF9-0AB1-40FF-A1A0-E8D74BC156D3}" name="rental_month"/>
+    <tableColumn id="2" xr3:uid="{60F1B82B-0473-47FF-A003-D54E8F2860BA}" name="rental_year"/>
+    <tableColumn id="3" xr3:uid="{83D38FB9-DCC8-4753-B032-F4FB36B57A1A}" name="store_id"/>
+    <tableColumn id="4" xr3:uid="{2B7D4E0C-73FE-472E-BD86-E87CEA1FFBA6}" name="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{92C3EF17-78DC-4FE1-9088-6F8A85B98F2D}" name="Table7" displayName="Table7" ref="A1:C25" totalsRowShown="0">
   <autoFilter ref="A1:C25" xr:uid="{92C3EF17-78DC-4FE1-9088-6F8A85B98F2D}"/>
   <tableColumns count="3">
@@ -13233,7 +14885,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{24B09406-5668-44EA-AA59-7505556543A4}" name="Table6" displayName="Table6" ref="A1:D362" totalsRowShown="0">
   <autoFilter ref="A1:D362" xr:uid="{24B09406-5668-44EA-AA59-7505556543A4}"/>
   <tableColumns count="4">
@@ -13246,7 +14898,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{113A6C63-0C5F-4D51-994B-934A5516F8E4}" name="Table1" displayName="Table1" ref="A1:C351" totalsRowShown="0">
   <autoFilter ref="A1:C351" xr:uid="{113A6C63-0C5F-4D51-994B-934A5516F8E4}"/>
   <tableColumns count="3">
@@ -13577,7 +15229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B950C9C-FB4B-4209-95BA-F64D7DF2833C}">
   <dimension ref="A3:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -13641,28 +15293,28 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>638</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1243</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>3677</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>3091</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>8649</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>98</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>98</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>8747</v>
       </c>
     </row>
@@ -13670,28 +15322,28 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>518</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>1068</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>3032</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>2595</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>7213</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>84</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>84</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>7297</v>
       </c>
     </row>
@@ -13699,28 +15351,28 @@
       <c r="A8" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1156</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>2311</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>6709</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>5686</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>15862</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>182</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>182</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>16044</v>
       </c>
     </row>
@@ -13731,11 +15383,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1065D17D-5A15-4A8A-936B-D66A8BBD6EE2}">
+  <dimension ref="A3:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7955</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7907</v>
+      </c>
+      <c r="D5" s="4">
+        <v>15862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>558</v>
+      </c>
+      <c r="C6" s="4">
+        <v>598</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1163</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1148</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3342</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3367</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2892</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2794</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4">
+        <v>97</v>
+      </c>
+      <c r="D10" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8040</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8004</v>
+      </c>
+      <c r="D12" s="4">
+        <v>16044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ADC378-A493-450E-9BD7-026295FDBA4E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="G1" sqref="G1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13743,9 +15553,12 @@
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>381</v>
       </c>
@@ -13758,8 +15571,20 @@
       <c r="D1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -13772,8 +15597,20 @@
       <c r="D2">
         <v>638</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2005</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -13786,8 +15623,20 @@
       <c r="D3">
         <v>518</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2005</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13800,8 +15649,20 @@
       <c r="D4">
         <v>1243</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>2005</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -13814,8 +15675,20 @@
       <c r="D5">
         <v>1068</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>2005</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -13828,8 +15701,20 @@
       <c r="D6">
         <v>3677</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>2005</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13842,8 +15727,20 @@
       <c r="D7">
         <v>3032</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>2005</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13856,8 +15753,20 @@
       <c r="D8">
         <v>3091</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>2005</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13870,8 +15779,20 @@
       <c r="D9">
         <v>2595</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>2005</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -13884,8 +15805,20 @@
       <c r="D10">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2006</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -13898,16 +15831,39 @@
       <c r="D11">
         <v>84</v>
       </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2006</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>SUM(Table8[count])</f>
+        <v>16044</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J2:J11)</f>
+        <v>16044</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF76BDD-BA4F-4B41-9821-FDAAEF3776B6}">
   <dimension ref="A3:H9"/>
   <sheetViews>
@@ -13965,25 +15921,25 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>14</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>91</v>
       </c>
     </row>
@@ -13991,25 +15947,25 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>13</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>90</v>
       </c>
     </row>
@@ -14017,25 +15973,25 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>14</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>90</v>
       </c>
     </row>
@@ -14043,25 +15999,25 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>90</v>
       </c>
     </row>
@@ -14069,25 +16025,25 @@
       <c r="A9" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>66</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>60</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>57</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>58</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>69</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>51</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>361</v>
       </c>
     </row>
@@ -14097,7 +16053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF43D59-6E16-4B5C-AEFC-8AF3135014B2}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -14394,7 +16350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68888004-8196-419E-9D35-096B36A7B828}">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -14774,7 +16730,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>91</v>
       </c>
     </row>
@@ -14782,7 +16738,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>90</v>
       </c>
     </row>
@@ -14790,7 +16746,7 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>90</v>
       </c>
     </row>
@@ -14798,7 +16754,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>90</v>
       </c>
     </row>
@@ -14806,7 +16762,7 @@
       <c r="A8" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>361</v>
       </c>
     </row>
@@ -14816,7 +16772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3089D9F-2FF7-4085-9B19-BA56E16E0314}">
   <dimension ref="A1:D362"/>
   <sheetViews>
@@ -19908,7 +21864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806017E3-022C-4BE0-B761-9768E9F219A5}">
   <dimension ref="A3:B10"/>
   <sheetViews>
@@ -19937,7 +21893,7 @@
       <c r="A4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1166</v>
       </c>
     </row>
@@ -19945,7 +21901,7 @@
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>945</v>
       </c>
     </row>
@@ -19953,7 +21909,7 @@
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>939</v>
       </c>
     </row>
@@ -19961,7 +21917,7 @@
       <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>941</v>
       </c>
     </row>
@@ -19969,7 +21925,7 @@
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1096</v>
       </c>
     </row>
@@ -19977,7 +21933,7 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>830</v>
       </c>
     </row>
@@ -19985,7 +21941,7 @@
       <c r="A10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>5917</v>
       </c>
     </row>
@@ -19995,7 +21951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF7941-5C7E-4FB1-A99C-8F1D4ED96B97}">
   <dimension ref="A1:C351"/>
   <sheetViews>
